--- a/Big Bang/Batch Upload/Student/Best_Adept Student Tracker (with validation).xlsx
+++ b/Big Bang/Batch Upload/Student/Best_Adept Student Tracker (with validation).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="795" windowWidth="17235" windowHeight="9270"/>
@@ -11,12 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$J$3</definedName>
+    <definedName name="L">Sheet1!$K$4</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>Contract?</t>
   </si>
@@ -40,13 +44,163 @@
   </si>
   <si>
     <t>Student_ID_Number</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>PUP</t>
+  </si>
+  <si>
+    <t>TUP</t>
+  </si>
+  <si>
+    <t>BatStateU</t>
+  </si>
+  <si>
+    <t>CvSU</t>
+  </si>
+  <si>
+    <t>TarSU</t>
+  </si>
+  <si>
+    <t>DMMMSU</t>
+  </si>
+  <si>
+    <t>PangSu</t>
+  </si>
+  <si>
+    <t>BengSU</t>
+  </si>
+  <si>
+    <t>BulSU</t>
+  </si>
+  <si>
+    <t>USEP</t>
+  </si>
+  <si>
+    <t>WVCST</t>
+  </si>
+  <si>
+    <t>WVSU</t>
+  </si>
+  <si>
+    <t>NorSU</t>
+  </si>
+  <si>
+    <t>CHMSC</t>
+  </si>
+  <si>
+    <t>NIPSC</t>
+  </si>
+  <si>
+    <t>LSPU-Sta Cruz</t>
+  </si>
+  <si>
+    <t>LSPU-San Pablo</t>
+  </si>
+  <si>
+    <t>LSPU-Los Banos</t>
+  </si>
+  <si>
+    <t>LSPU-Siniloan</t>
+  </si>
+  <si>
+    <t>BatStateU-Main I</t>
+  </si>
+  <si>
+    <t>BatStateU-Main II</t>
+  </si>
+  <si>
+    <t>BatStateU-Balayan</t>
+  </si>
+  <si>
+    <t>BatStateU-Lemery</t>
+  </si>
+  <si>
+    <t>BatStateU-Lipa</t>
+  </si>
+  <si>
+    <t>BatStateU-Lobo</t>
+  </si>
+  <si>
+    <t>BatStateU-Malvar</t>
+  </si>
+  <si>
+    <t>BatStateU-Rosario</t>
+  </si>
+  <si>
+    <t>BatStateU-San Juan</t>
+  </si>
+  <si>
+    <t>BatStateU-Nasugbu</t>
+  </si>
+  <si>
+    <t>CvSU-Indang</t>
+  </si>
+  <si>
+    <t>CvSU-Rosario</t>
+  </si>
+  <si>
+    <t>CvSU-Carmona</t>
+  </si>
+  <si>
+    <t>CvSU-Naic</t>
+  </si>
+  <si>
+    <t>CvSU-Cavite City</t>
+  </si>
+  <si>
+    <t>CvSU-Tanza</t>
+  </si>
+  <si>
+    <t>CvSU-Trece Martires</t>
+  </si>
+  <si>
+    <t>CvSU-Imus</t>
+  </si>
+  <si>
+    <t>CvSU-Silang</t>
+  </si>
+  <si>
+    <t>CvSU-Bacoor</t>
+  </si>
+  <si>
+    <t>CvSU-General Trias</t>
+  </si>
+  <si>
+    <t>PNU-Main</t>
+  </si>
+  <si>
+    <t>BulSU-Malolos</t>
+  </si>
+  <si>
+    <t>BulSU-Bustos</t>
+  </si>
+  <si>
+    <t>BulSU-Meneses</t>
+  </si>
+  <si>
+    <t>BulSU-Sarmiento</t>
+  </si>
+  <si>
+    <t>BulSU-Hagonoy</t>
+  </si>
+  <si>
+    <t>School List</t>
+  </si>
+  <si>
+    <t>Subject List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,37 +300,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -196,10 +344,20 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,19 +370,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:H1048576"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Last_Name"/>
-    <tableColumn id="2" name="First_Name"/>
-    <tableColumn id="3" name="Middle_Initial"/>
-    <tableColumn id="4" name="Student_ID_Number"/>
-    <tableColumn id="5" name="Contract?"/>
-    <tableColumn id="6" name="Status" dataDxfId="0"/>
-    <tableColumn id="7" name="Remarks"/>
-    <tableColumn id="8" name="CD?"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:J1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A3:J1048576"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Subject"/>
+    <tableColumn id="2" name="Last_Name"/>
+    <tableColumn id="3" name="First_Name"/>
+    <tableColumn id="4" name="Middle_Initial"/>
+    <tableColumn id="5" name="Student_ID_Number"/>
+    <tableColumn id="6" name="School"/>
+    <tableColumn id="7" name="Contract?"/>
+    <tableColumn id="8" name="Status" dataDxfId="2"/>
+    <tableColumn id="9" name="Remarks"/>
+    <tableColumn id="10" name="CD?"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -303,6 +463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,6 +498,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,111 +674,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:47" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. &#10;Must be Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="F1">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Must be Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="H3">
       <formula1>"currently taking,dropped,passed,fail"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="D1:D1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="E3 E4:E1048576">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must only be 45 characters long&#10;" prompt="Name must be 45 characters at most" sqref="A1:A1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long_x000a_" prompt="Name must be 45 characters at most" sqref="A3:B3 A4:B1048576">
       <formula1>1</formula1>
       <formula2>45</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Must only be 45 characters long" prompt="Name must be 45 characters at most." sqref="B1:B1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 45 characters long" prompt="Name must be 45 characters at most." sqref="C3 C4:C1048576">
       <formula1>1</formula1>
       <formula2>45</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Please indicate initial only." prompt="Text must contain 5 characters at most." sqref="C1:C1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Please indicate initial only." prompt="Text must contain 5 characters at most." sqref="D3 D4:D1048576">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input.&#10;Indicate if answer is yes or no." prompt="Answer must be yes or no." sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input._x000a_Indicate if answer is yes or no." prompt="Answer must be yes or no." sqref="G3 G4:G1048576">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Remarks must be 255 characters or less." prompt="Remarks must be less than 255 characters" sqref="G1:G1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. Remarks must be 255 characters or less." prompt="Remarks must be less than 255 characters" sqref="I3 I4:I1048576">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid answer.&#10;Please indicate if answer is yes or no." prompt="Answer must be yes or no." sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid answer._x000a_Please indicate if answer is yes or no." prompt="Answer must be yes or no." sqref="J3 J4:J1048576">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. &#10;Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid input. _x000a_Status must be currently taking, dropped, passed or fail." prompt="Status must be currently taking, dropped, passed or fail." sqref="H4:H1048576">
       <formula1>"currently taking,dropped,passed,fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="F3">
+      <formula1>$K$3:$K$48</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="Invalid input._x000a_Must only be 10 characters long." prompt="ID number must be 10 characters at most." sqref="F4:F1048576">
+      <formula1>$B$1:$AU$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:AU4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AU4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
